--- a/Hydrophones/Results/calculations/storm7_results.xlsx
+++ b/Hydrophones/Results/calculations/storm7_results.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Results\calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Results\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06ED041-9647-44BD-843C-95356D905B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C0946-43A3-4217-A395-3407A2367940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7416B8A-9362-444F-89FB-DD7D5E3DE839}"/>
   </bookViews>
   <sheets>
     <sheet name="storm7_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1536,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1533,7 +1544,1814 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Amp Over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38794824590588139"/>
+          <c:y val="3.3057851239669422E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>storm7_results!$E$31:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>45183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45183.010416666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45183.020833333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45183.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45183.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45183.052083333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45183.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45183.072916666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45183.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45183.09375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45183.104166666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45183.114583333336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45183.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45183.135416666664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45183.145833333336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45183.15625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45183.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45183.177083333336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45183.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45183.197916666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45183.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45183.21875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45183.229166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45183.239583333336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45183.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45183.260416666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45183.270833333336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45183.28125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45183.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45183.302083333336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45183.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45183.322916666664</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45183.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45183.34375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45183.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45183.364583333336</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45183.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45183.385416666664</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45183.395833333336</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45183.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45183.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45183.427083333336</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45183.4375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45183.447916666664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45183.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45183.46875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45183.479166666664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45183.489583333336</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45183.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45183.510416666664</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45183.520833333336</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45183.53125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45183.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45183.552083333336</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45183.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45183.572916666664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45183.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45183.59375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45183.604166666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45183.614583333336</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45183.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45183.635416666664</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45183.645833333336</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45183.65625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45183.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45183.677083333336</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45183.6875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45183.697916666664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45183.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45183.71875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45183.729166666664</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45183.739583333336</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45183.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45183.760416666664</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45183.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45183.78125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45183.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45183.802083333336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45183.8125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45183.822916666664</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45183.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45183.84375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45183.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45183.864583333336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45183.875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45183.885416666664</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45183.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45183.90625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45183.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45183.927083333336</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45183.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45183.947916666664</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45183.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45183.96875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45183.979166666664</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45183.989583333336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>storm7_results!$G$31:$G$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>1.48918241455826E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75339780368162E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.60191544932798E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57255413467961E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7467325319766799E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.73371971435403E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.65801042917558E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.64682738824585E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7192566054674201E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6908203689492501E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6721515139246799E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.71139093952714E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.76657010709168E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7104322482313799E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7013262818912E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.77851131441957E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7302645526482501E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.65473629178842E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6179703250524501E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6607893298397299E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6230905958453301E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.72765350201631E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.62976436539558E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.62771294368877E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6605374055266801E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.70502943627684E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7625755879899401E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7618236075253599E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7396078555460099E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7223016219032399E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6819695432638501E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.77823828917981E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7202132268754899E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7688299107993799E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6904896134355E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8264948907686801E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7186295044436201E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.69547452575039E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5757954896491199E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6494681723764201E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5798799955804401E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6399840813678601E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6014473143931101E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6126739495556401E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6221669553992E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.60952815118506E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6789147098060201E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5265688921720099E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.59511605504722E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.62483595146786E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.29263856955485E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.60747029414704E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.67950093911002E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5207707979043501E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.69609307618904E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4637672746968199E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7398005281998698E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8594091932754602E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.18490615459225E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.2487807443810201E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9686124843220103E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.2921157154127699E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.6750673888819204E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2855048845581697E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.8532645622258496E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6739593768415703E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.1287195307180098E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.0686885866662903E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.0372114978492798E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9789584791467296E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0032895272070699E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.7121109019883801E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.1057430055224396E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3385254564511601E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9207994414540903E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.7805209972939999E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0727438751610697E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3566046223445501E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.6897565189760798E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.6677197663314903E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7618181197281798E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.7906490199518303E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.03920491464575E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.6900414441850801E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.7550199440188597E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.9703836516548604E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0490079562905697E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.5877155134369103E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.2816908694850503E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.1878416058849095E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.0530487394141308E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.5232906413792303E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.3214987301129702E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.9507443560908504E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.4601818453421502E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.4586785666027099E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.4844617423757602E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5D9-4B79-A482-EF7CB4EAC95F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="905919519"/>
+        <c:axId val="905903199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="905919519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="905903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905919519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Median Amp Over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38794824590588139"/>
+          <c:y val="3.3057851239669422E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>storm7_results!$E$31:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>45183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45183.010416666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45183.020833333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45183.03125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45183.041666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45183.052083333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45183.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45183.072916666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45183.083333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45183.09375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45183.104166666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45183.114583333336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45183.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45183.135416666664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45183.145833333336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45183.15625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45183.166666666664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45183.177083333336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45183.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45183.197916666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45183.208333333336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45183.21875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45183.229166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45183.239583333336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45183.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45183.260416666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45183.270833333336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45183.28125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45183.291666666664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45183.302083333336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45183.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45183.322916666664</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45183.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45183.34375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45183.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45183.364583333336</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45183.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45183.385416666664</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45183.395833333336</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45183.40625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45183.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45183.427083333336</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45183.4375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45183.447916666664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45183.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45183.46875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45183.479166666664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45183.489583333336</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45183.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45183.510416666664</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45183.520833333336</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45183.53125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45183.541666666664</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45183.552083333336</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45183.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45183.572916666664</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45183.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45183.59375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45183.604166666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45183.614583333336</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45183.625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45183.635416666664</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45183.645833333336</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45183.65625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45183.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45183.677083333336</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45183.6875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45183.697916666664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45183.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45183.71875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45183.729166666664</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45183.739583333336</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45183.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45183.760416666664</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45183.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45183.78125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45183.791666666664</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45183.802083333336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45183.8125</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45183.822916666664</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45183.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45183.84375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45183.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45183.864583333336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45183.875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45183.885416666664</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45183.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45183.90625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45183.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45183.927083333336</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45183.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45183.947916666664</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45183.958333333336</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45183.96875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45183.979166666664</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45183.989583333336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>storm7_results!$H$31:$H$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>1.4443244099790701E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.72165141237623E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.56800916928212E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4641417011293E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6442662465729701E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.67407886540412E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6123247858814201E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6464519487362601E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.67627353686994E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.59538410812974E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6686525136920399E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6311125180861099E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.68222845070109E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6503465804855401E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.68305382720369E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6622636481175E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6363612046482599E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5633823822900001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.61535514201586E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6313729884522999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5418052837500901E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6526958284461099E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5408527650193199E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.57401076140998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6578523975116599E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.56725542069138E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7802770378395399E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6838548882704501E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75450423283672E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.66727583006456E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.61847359796134E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.71789478641079E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6506893304299201E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.76212610169218E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.66828524025883E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6987373791156201E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7025546443031299E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6630477110872899E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4958677366156399E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5755787044136899E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4671725903094401E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.60842530886633E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.52575499270316E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.53787486840676E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5203353825497101E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5281531880600701E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.62160550886112E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.52057636943681E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5954561463587199E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5405963606936E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.22388058070665E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5482418897719401E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6514990348078301E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4950328657627799E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.65343478770964E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4326834117918601E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.7135679866533099E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8321264639526098E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.04788592009839E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.4805641726303998E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8719667041107698E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.3663758095105398E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.3665389564970002E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.9246396521023502E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.7043255656029904E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5462934149740698E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.0432321273247098E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.0243515520878198E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8933303884616401E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9517428732501201E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.90080526327697E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.4793415753091298E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.5928703523882E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2268225010352401E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.5995808395566298E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.6278351962997303E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.1461676554512602E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2375068012059604E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.6219036906925996E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3884231675924701E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7629708973648101E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.7048831746521504E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9124594661955797E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4762190600076101E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.61710022586612E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7107349355683098E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.9972149739437398E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4215269729860697E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9522704379340302E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.1341264044747091E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8709603171393597E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.5205007476218302E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.9715780679070897E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.6214385025650403E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.19218431166504E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.0234569307734904E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.3822715128061198E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2B4-434F-A32F-2326F27574C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="905919519"/>
+        <c:axId val="905903199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="905919519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="905903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905919519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1569,6 +3387,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2124,6 +4022,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2164,808 +5094,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1664D49-848E-4D1F-BA45-0E1B175772C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909CE33C-5351-430E-8072-751B6FC6B11A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="storm4_results"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="E31">
-            <v>45136</v>
-          </cell>
-          <cell r="F31">
-            <v>1.46652696180634E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>45136.010416666664</v>
-          </cell>
-          <cell r="F32">
-            <v>1.64292678709832E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>45136.020833333336</v>
-          </cell>
-          <cell r="F33">
-            <v>1.8958083304842E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>45136.03125</v>
-          </cell>
-          <cell r="F34">
-            <v>1.57738201638892E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>45136.041666666664</v>
-          </cell>
-          <cell r="F35">
-            <v>1.7324309186853501E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>45136.052083333336</v>
-          </cell>
-          <cell r="F36">
-            <v>2.1742909659810202E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>45136.0625</v>
-          </cell>
-          <cell r="F37">
-            <v>1.9115992125690901E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>45136.072916666664</v>
-          </cell>
-          <cell r="F38">
-            <v>1.8533469465226199E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>45136.083333333336</v>
-          </cell>
-          <cell r="F39">
-            <v>1.57590447417953E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>45136.09375</v>
-          </cell>
-          <cell r="F40">
-            <v>1.6981105453692099E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>45136.104166666664</v>
-          </cell>
-          <cell r="F41">
-            <v>1.5563191765683899E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>45136.114583333336</v>
-          </cell>
-          <cell r="F42">
-            <v>1.83258588386763E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>45136.125</v>
-          </cell>
-          <cell r="F43">
-            <v>1.3694104217925999E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>45136.135416666664</v>
-          </cell>
-          <cell r="F44">
-            <v>1.5343751096648401E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>45136.145833333336</v>
-          </cell>
-          <cell r="F45">
-            <v>1.76174783583401E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>45136.15625</v>
-          </cell>
-          <cell r="F46">
-            <v>1.5330927002744699E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>45136.166666666664</v>
-          </cell>
-          <cell r="F47">
-            <v>1.8854270199212199E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>45136.177083333336</v>
-          </cell>
-          <cell r="F48">
-            <v>1.9953233646813999E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>45136.1875</v>
-          </cell>
-          <cell r="F49">
-            <v>1.6886749267300499E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>45136.197916666664</v>
-          </cell>
-          <cell r="F50">
-            <v>1.5744174172093099E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>45136.208333333336</v>
-          </cell>
-          <cell r="F51">
-            <v>1.65782470042395E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>45136.21875</v>
-          </cell>
-          <cell r="F52">
-            <v>1.8593557345446599E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>45136.229166666664</v>
-          </cell>
-          <cell r="F53">
-            <v>1.4471575648726601E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>45136.239583333336</v>
-          </cell>
-          <cell r="F54">
-            <v>1.7687551141408601E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>45136.25</v>
-          </cell>
-          <cell r="F55">
-            <v>2.1150958657943099E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>45136.260416666664</v>
-          </cell>
-          <cell r="F56">
-            <v>1.8492261449139899E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>45136.270833333336</v>
-          </cell>
-          <cell r="F57">
-            <v>1.6347285776357101E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>45136.28125</v>
-          </cell>
-          <cell r="F58">
-            <v>1.54252879064151E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>45136.291666666664</v>
-          </cell>
-          <cell r="F59">
-            <v>1.8006377866418299E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>45136.302083333336</v>
-          </cell>
-          <cell r="F60">
-            <v>2.1681377782760401E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>45136.3125</v>
-          </cell>
-          <cell r="F61">
-            <v>2.1085808792938002E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>45136.322916666664</v>
-          </cell>
-          <cell r="F62">
-            <v>2.1833630699861499E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>45136.333333333336</v>
-          </cell>
-          <cell r="F63">
-            <v>1.75111158476045E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64">
-            <v>45136.34375</v>
-          </cell>
-          <cell r="F64">
-            <v>1.7844736662816199E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>45136.354166666664</v>
-          </cell>
-          <cell r="F65">
-            <v>1.7102832150940001E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66">
-            <v>45136.364583333336</v>
-          </cell>
-          <cell r="F66">
-            <v>1.9247755288669399E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67">
-            <v>45136.375</v>
-          </cell>
-          <cell r="F67">
-            <v>1.77705701606591E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68">
-            <v>45136.385416666664</v>
-          </cell>
-          <cell r="F68">
-            <v>2.4305588248727198E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>45136.395833333336</v>
-          </cell>
-          <cell r="F69">
-            <v>1.8750394838504599E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>45136.40625</v>
-          </cell>
-          <cell r="F70">
-            <v>1.8098333652577701E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>45136.416666666664</v>
-          </cell>
-          <cell r="F71">
-            <v>1.8954974147218199E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>45136.427083333336</v>
-          </cell>
-          <cell r="F72">
-            <v>2.6495397572757198E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73">
-            <v>45136.4375</v>
-          </cell>
-          <cell r="F73">
-            <v>1.99010905368856E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74">
-            <v>45136.447916666664</v>
-          </cell>
-          <cell r="F74">
-            <v>1.8915106434304199E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="E75">
-            <v>45136.458333333336</v>
-          </cell>
-          <cell r="F75">
-            <v>1.7747895866678E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="E76">
-            <v>45136.46875</v>
-          </cell>
-          <cell r="F76">
-            <v>1.97576584676401E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="E77">
-            <v>45136.479166666664</v>
-          </cell>
-          <cell r="F77">
-            <v>1.9537780442648901E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="E78">
-            <v>45136.489583333336</v>
-          </cell>
-          <cell r="F78">
-            <v>2.33640833184455E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="E79">
-            <v>45136.5</v>
-          </cell>
-          <cell r="F79">
-            <v>2.4929702401688099E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="E80">
-            <v>45136.510416666664</v>
-          </cell>
-          <cell r="F80">
-            <v>1.7759228808265201E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="E81">
-            <v>45136.520833333336</v>
-          </cell>
-          <cell r="F81">
-            <v>1.68562881777255E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="E82">
-            <v>45136.53125</v>
-          </cell>
-          <cell r="F82">
-            <v>1.8521823460758099E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="E83">
-            <v>45136.541666666664</v>
-          </cell>
-          <cell r="F83">
-            <v>2.1292297824431899E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="E84">
-            <v>45136.552083333336</v>
-          </cell>
-          <cell r="F84">
-            <v>2.23035503888693E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="E85">
-            <v>45136.5625</v>
-          </cell>
-          <cell r="F85">
-            <v>2.1536195357684E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="E86">
-            <v>45136.572916666664</v>
-          </cell>
-          <cell r="F86">
-            <v>1.9558159850699302E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="E87">
-            <v>45136.583333333336</v>
-          </cell>
-          <cell r="F87">
-            <v>2.1807380052171199E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="E88">
-            <v>45136.59375</v>
-          </cell>
-          <cell r="F88">
-            <v>1.63335752682836E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="E89">
-            <v>45136.604166666664</v>
-          </cell>
-          <cell r="F89">
-            <v>2.0301509497516598E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="E90">
-            <v>45136.614583333336</v>
-          </cell>
-          <cell r="F90">
-            <v>1.6615013830219101E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="E91">
-            <v>45136.625</v>
-          </cell>
-          <cell r="F91">
-            <v>1.75372070650311E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="E92">
-            <v>45136.635416666664</v>
-          </cell>
-          <cell r="F92">
-            <v>2.0781803516136199E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="E93">
-            <v>45136.645833333336</v>
-          </cell>
-          <cell r="F93">
-            <v>2.5183552184414402E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="E94">
-            <v>45136.65625</v>
-          </cell>
-          <cell r="F94">
-            <v>2.8864465295143E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="E95">
-            <v>45136.666666666664</v>
-          </cell>
-          <cell r="F95">
-            <v>2.8332869132553298E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="E96">
-            <v>45136.677083333336</v>
-          </cell>
-          <cell r="F96">
-            <v>2.31075605158718E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="E97">
-            <v>45136.6875</v>
-          </cell>
-          <cell r="F97">
-            <v>2.6385847685849702E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="E98">
-            <v>45136.688888888886</v>
-          </cell>
-          <cell r="F98">
-            <v>3.0203663729592698E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="E99">
-            <v>45136.697916666664</v>
-          </cell>
-          <cell r="F99">
-            <v>2.8690679211517598E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="E100">
-            <v>45136.708333333336</v>
-          </cell>
-          <cell r="F100">
-            <v>2.7337247576358801E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="E101">
-            <v>45136.71875</v>
-          </cell>
-          <cell r="F101">
-            <v>2.5924912952187602E-3</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="E102">
-            <v>45136.729166666664</v>
-          </cell>
-          <cell r="F102">
-            <v>2.4039497096823501E-3</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="E103">
-            <v>45136.739583333336</v>
-          </cell>
-          <cell r="F103">
-            <v>2.1591403723509898E-3</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="E104">
-            <v>45136.75</v>
-          </cell>
-          <cell r="F104">
-            <v>2.3119151101826901E-3</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="E105">
-            <v>45136.760416666664</v>
-          </cell>
-          <cell r="F105">
-            <v>2.2114624504807499E-3</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="E106">
-            <v>45136.770833333336</v>
-          </cell>
-          <cell r="F106">
-            <v>2.2868426601121302E-3</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="E107">
-            <v>45136.78125</v>
-          </cell>
-          <cell r="F107">
-            <v>2.06305044803602E-3</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="E108">
-            <v>45136.791666666664</v>
-          </cell>
-          <cell r="F108">
-            <v>2.1201634637190402E-3</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="E109">
-            <v>45136.802083333336</v>
-          </cell>
-          <cell r="F109">
-            <v>1.82616230796671E-3</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="E110">
-            <v>45136.8125</v>
-          </cell>
-          <cell r="F110">
-            <v>1.73195884362601E-3</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="E111">
-            <v>45136.822916666664</v>
-          </cell>
-          <cell r="F111">
-            <v>1.90074504410695E-3</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="E112">
-            <v>45136.833333333336</v>
-          </cell>
-          <cell r="F112">
-            <v>2.0585786264673998E-3</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="E113">
-            <v>45136.84375</v>
-          </cell>
-          <cell r="F113">
-            <v>2.5178172280574201E-3</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="E114">
-            <v>45136.854166666664</v>
-          </cell>
-          <cell r="F114">
-            <v>2.7194788174782999E-3</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="E115">
-            <v>45136.864583333336</v>
-          </cell>
-          <cell r="F115">
-            <v>2.0176607728492201E-3</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="E116">
-            <v>45136.875</v>
-          </cell>
-          <cell r="F116">
-            <v>1.97677341012471E-3</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="E117">
-            <v>45136.885416666664</v>
-          </cell>
-          <cell r="F117">
-            <v>1.90084610201733E-3</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="E118">
-            <v>45136.895833333336</v>
-          </cell>
-          <cell r="F118">
-            <v>2.2007396774132498E-3</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="E119">
-            <v>45136.90625</v>
-          </cell>
-          <cell r="F119">
-            <v>1.5551950107469199E-3</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="E120">
-            <v>45136.916666666664</v>
-          </cell>
-          <cell r="F120">
-            <v>1.65876057983797E-3</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="E121">
-            <v>45136.927083333336</v>
-          </cell>
-          <cell r="F121">
-            <v>1.57563785829659E-3</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="E122">
-            <v>45136.9375</v>
-          </cell>
-          <cell r="F122">
-            <v>1.7576451829505299E-3</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="E123">
-            <v>45136.947916666664</v>
-          </cell>
-          <cell r="F123">
-            <v>1.4519061281063901E-3</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="E124">
-            <v>45136.958333333336</v>
-          </cell>
-          <cell r="F124">
-            <v>1.51211862374931E-3</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="E125">
-            <v>45136.96875</v>
-          </cell>
-          <cell r="F125">
-            <v>1.4709737094233701E-3</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="E126">
-            <v>45136.979166666664</v>
-          </cell>
-          <cell r="F126">
-            <v>1.3819955369978501E-3</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="E127">
-            <v>45136.989583333336</v>
-          </cell>
-          <cell r="F127">
-            <v>1.4937922536797099E-3</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="E128">
-            <v>45137</v>
-          </cell>
-          <cell r="F128">
-            <v>1.4383870110645E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3287,17 +5492,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5B3EE7-9F25-49D2-9950-CA5E6E11E08F}">
   <dimension ref="A1:CT127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>45183</v>
       </c>
@@ -3590,7 +5795,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3886,7 +6091,7 @@
         <v>1.1056414239476E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4182,7 +6387,7 @@
         <v>7.4844617423757602E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4478,7 +6683,7 @@
         <v>7.3822715128061198E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4774,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5070,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5366,7 +7571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5662,7 +7867,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5958,7 +8163,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6254,7 +8459,7 @@
         <v>9272</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6550,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6846,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7142,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7438,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7734,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8030,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:98">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -8326,7 +10531,7 @@
         <v>0.17690262783161601</v>
       </c>
     </row>
-    <row r="18" spans="1:98">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -8622,7 +10827,7 @@
         <v>0.14150035624935101</v>
       </c>
     </row>
-    <row r="19" spans="1:98">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -8918,7 +11123,7 @@
         <v>0.14896287048121201</v>
       </c>
     </row>
-    <row r="20" spans="1:98">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -9214,7 +11419,7 @@
         <v>0.70761051132646602</v>
       </c>
     </row>
-    <row r="21" spans="1:98">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9510,7 +11715,7 @@
         <v>0.47900555151204799</v>
       </c>
     </row>
-    <row r="22" spans="1:98">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9806,7 +12011,7 @@
         <v>0.472465376819591</v>
       </c>
     </row>
-    <row r="23" spans="1:98">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -10102,7 +12307,7 @@
         <v>2.8304420453058601</v>
       </c>
     </row>
-    <row r="24" spans="1:98">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -10398,7 +12603,7 @@
         <v>1.91602220604819</v>
       </c>
     </row>
-    <row r="25" spans="1:98">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -10694,7 +12899,7 @@
         <v>1.88986150727836</v>
       </c>
     </row>
-    <row r="26" spans="1:98">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -10990,7 +13195,7 @@
         <v>11.321768181223399</v>
       </c>
     </row>
-    <row r="27" spans="1:98">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -11286,7 +13491,7 @@
         <v>7.6640888241927803</v>
       </c>
     </row>
-    <row r="28" spans="1:98">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -11582,7 +13787,7 @@
         <v>7.5594460291134604</v>
       </c>
     </row>
-    <row r="30" spans="1:98">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -11601,7 +13806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:98">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="str">
         <f>A2</f>
         <v>max_amp</v>
@@ -11627,9 +13832,9 @@
         <v>1.4443244099790701E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:98">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="str">
-        <f t="shared" ref="A32:A58" si="0">A3</f>
+        <f t="shared" ref="A32:A56" si="0">A3</f>
         <v>mean_amp</v>
       </c>
       <c r="B32" s="2">
@@ -11653,7 +13858,7 @@
         <v>1.72165141237623E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>median_amp</v>
@@ -11679,7 +13884,7 @@
         <v>1.56800916928212E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>impulses_ch6</v>
@@ -11705,7 +13910,7 @@
         <v>1.4641417011293E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>impulses_ch5</v>
@@ -11731,7 +13936,7 @@
         <v>1.6442662465729701E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>impulses_ch4</v>
@@ -11757,7 +13962,7 @@
         <v>1.67407886540412E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>impulses_ch3</v>
@@ -11783,7 +13988,7 @@
         <v>1.6123247858814201E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>impulses_ch2</v>
@@ -11809,7 +14014,7 @@
         <v>1.6464519487362601E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>impulses_ch1</v>
@@ -11835,7 +14040,7 @@
         <v>1.67627353686994E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>max_env_ch6</v>
@@ -11861,7 +14066,7 @@
         <v>1.59538410812974E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>mean_env_ch6</v>
@@ -11887,7 +14092,7 @@
         <v>1.6686525136920399E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>median_env_ch6</v>
@@ -11913,7 +14118,7 @@
         <v>1.6311125180861099E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>max_env_ch5</v>
@@ -11939,7 +14144,7 @@
         <v>1.68222845070109E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>mean_env_ch5</v>
@@ -11965,7 +14170,7 @@
         <v>1.6503465804855401E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="str">
         <f>A16</f>
         <v>median_env_ch5</v>
@@ -11991,7 +14196,7 @@
         <v>1.68305382720369E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>max_env_ch4</v>
@@ -12017,7 +14222,7 @@
         <v>1.6622636481175E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>mean_env_ch4</v>
@@ -12043,7 +14248,7 @@
         <v>1.6363612046482599E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>median_env_ch4</v>
@@ -12069,7 +14274,7 @@
         <v>1.5633823822900001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>max_env_ch3</v>
@@ -12095,7 +14300,7 @@
         <v>1.61535514201586E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>mean_env_ch3</v>
@@ -12121,7 +14326,7 @@
         <v>1.6313729884522999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>median_env_ch3</v>
@@ -12147,7 +14352,7 @@
         <v>1.5418052837500901E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>max_env_ch2</v>
@@ -12173,7 +14378,7 @@
         <v>1.6526958284461099E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>mean_env_ch2</v>
@@ -12199,7 +14404,7 @@
         <v>1.5408527650193199E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="str">
         <f>A25</f>
         <v>median_env_ch2</v>
@@ -12225,7 +14430,7 @@
         <v>1.57401076140998E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>max_env_ch1</v>
@@ -12251,7 +14456,7 @@
         <v>1.6578523975116599E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>mean_env_ch1</v>
@@ -12277,7 +14482,7 @@
         <v>1.56725542069138E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>A28</f>
         <v>median_env_ch1</v>
@@ -12303,7 +14508,7 @@
         <v>1.7802770378395399E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="E58" s="1">
         <v>45183.28125</v>
@@ -12318,7 +14523,7 @@
         <v>1.6838548882704501E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E59" s="1">
         <v>45183.291666666664</v>
       </c>
@@ -12332,7 +14537,7 @@
         <v>1.75450423283672E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E60" s="1">
         <v>45183.302083333336</v>
       </c>
@@ -12346,7 +14551,7 @@
         <v>1.66727583006456E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E61" s="1">
         <v>45183.3125</v>
       </c>
@@ -12360,7 +14565,7 @@
         <v>1.61847359796134E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E62" s="1">
         <v>45183.322916666664</v>
       </c>
@@ -12374,7 +14579,7 @@
         <v>1.71789478641079E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E63" s="1">
         <v>45183.333333333336</v>
       </c>
@@ -12388,7 +14593,7 @@
         <v>1.6506893304299201E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
         <v>45183.34375</v>
       </c>
@@ -12402,7 +14607,7 @@
         <v>1.76212610169218E-3</v>
       </c>
     </row>
-    <row r="65" spans="5:8">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" s="1">
         <v>45183.354166666664</v>
       </c>
@@ -12416,7 +14621,7 @@
         <v>1.66828524025883E-3</v>
       </c>
     </row>
-    <row r="66" spans="5:8">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="1">
         <v>45183.364583333336</v>
       </c>
@@ -12430,7 +14635,7 @@
         <v>1.6987373791156201E-3</v>
       </c>
     </row>
-    <row r="67" spans="5:8">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="1">
         <v>45183.375</v>
       </c>
@@ -12444,7 +14649,7 @@
         <v>1.7025546443031299E-3</v>
       </c>
     </row>
-    <row r="68" spans="5:8">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" s="1">
         <v>45183.385416666664</v>
       </c>
@@ -12458,7 +14663,7 @@
         <v>1.6630477110872899E-3</v>
       </c>
     </row>
-    <row r="69" spans="5:8">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" s="1">
         <v>45183.395833333336</v>
       </c>
@@ -12472,7 +14677,7 @@
         <v>1.4958677366156399E-3</v>
       </c>
     </row>
-    <row r="70" spans="5:8">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <v>45183.40625</v>
       </c>
@@ -12486,7 +14691,7 @@
         <v>1.5755787044136899E-3</v>
       </c>
     </row>
-    <row r="71" spans="5:8">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" s="1">
         <v>45183.416666666664</v>
       </c>
@@ -12500,7 +14705,7 @@
         <v>1.4671725903094401E-3</v>
       </c>
     </row>
-    <row r="72" spans="5:8">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72" s="1">
         <v>45183.427083333336</v>
       </c>
@@ -12514,7 +14719,7 @@
         <v>1.60842530886633E-3</v>
       </c>
     </row>
-    <row r="73" spans="5:8">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73" s="1">
         <v>45183.4375</v>
       </c>
@@ -12528,7 +14733,7 @@
         <v>1.52575499270316E-3</v>
       </c>
     </row>
-    <row r="74" spans="5:8">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E74" s="1">
         <v>45183.447916666664</v>
       </c>
@@ -12542,7 +14747,7 @@
         <v>1.53787486840676E-3</v>
       </c>
     </row>
-    <row r="75" spans="5:8">
+    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E75" s="1">
         <v>45183.458333333336</v>
       </c>
@@ -12556,7 +14761,7 @@
         <v>1.5203353825497101E-3</v>
       </c>
     </row>
-    <row r="76" spans="5:8">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E76" s="1">
         <v>45183.46875</v>
       </c>
@@ -12570,7 +14775,7 @@
         <v>1.5281531880600701E-3</v>
       </c>
     </row>
-    <row r="77" spans="5:8">
+    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E77" s="1">
         <v>45183.479166666664</v>
       </c>
@@ -12584,7 +14789,7 @@
         <v>1.62160550886112E-3</v>
       </c>
     </row>
-    <row r="78" spans="5:8">
+    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E78" s="1">
         <v>45183.489583333336</v>
       </c>
@@ -12598,7 +14803,7 @@
         <v>1.52057636943681E-3</v>
       </c>
     </row>
-    <row r="79" spans="5:8">
+    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E79" s="1">
         <v>45183.5</v>
       </c>
@@ -12612,7 +14817,7 @@
         <v>1.5954561463587199E-3</v>
       </c>
     </row>
-    <row r="80" spans="5:8">
+    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E80" s="1">
         <v>45183.510416666664</v>
       </c>
@@ -12626,7 +14831,7 @@
         <v>1.5405963606936E-3</v>
       </c>
     </row>
-    <row r="81" spans="5:8">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E81" s="1">
         <v>45183.520833333336</v>
       </c>
@@ -12640,7 +14845,7 @@
         <v>2.22388058070665E-3</v>
       </c>
     </row>
-    <row r="82" spans="5:8">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E82" s="1">
         <v>45183.53125</v>
       </c>
@@ -12654,7 +14859,7 @@
         <v>1.5482418897719401E-3</v>
       </c>
     </row>
-    <row r="83" spans="5:8">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E83" s="1">
         <v>45183.541666666664</v>
       </c>
@@ -12668,7 +14873,7 @@
         <v>1.6514990348078301E-3</v>
       </c>
     </row>
-    <row r="84" spans="5:8">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E84" s="1">
         <v>45183.552083333336</v>
       </c>
@@ -12682,7 +14887,7 @@
         <v>1.4950328657627799E-3</v>
       </c>
     </row>
-    <row r="85" spans="5:8">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E85" s="1">
         <v>45183.5625</v>
       </c>
@@ -12696,7 +14901,7 @@
         <v>1.65343478770964E-3</v>
       </c>
     </row>
-    <row r="86" spans="5:8">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E86" s="1">
         <v>45183.572916666664</v>
       </c>
@@ -12710,7 +14915,7 @@
         <v>1.4326834117918601E-3</v>
       </c>
     </row>
-    <row r="87" spans="5:8">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E87" s="1">
         <v>45183.583333333336</v>
       </c>
@@ -12724,7 +14929,7 @@
         <v>2.7135679866533099E-3</v>
       </c>
     </row>
-    <row r="88" spans="5:8">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E88" s="1">
         <v>45183.59375</v>
       </c>
@@ -12738,7 +14943,7 @@
         <v>5.8321264639526098E-3</v>
       </c>
     </row>
-    <row r="89" spans="5:8">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E89" s="1">
         <v>45183.604166666664</v>
       </c>
@@ -12752,7 +14957,7 @@
         <v>3.04788592009839E-3</v>
       </c>
     </row>
-    <row r="90" spans="5:8">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E90" s="1">
         <v>45183.614583333336</v>
       </c>
@@ -12766,7 +14971,7 @@
         <v>4.4805641726303998E-3</v>
       </c>
     </row>
-    <row r="91" spans="5:8">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E91" s="1">
         <v>45183.625</v>
       </c>
@@ -12780,7 +14985,7 @@
         <v>4.8719667041107698E-3</v>
       </c>
     </row>
-    <row r="92" spans="5:8">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E92" s="1">
         <v>45183.635416666664</v>
       </c>
@@ -12794,7 +14999,7 @@
         <v>6.3663758095105398E-3</v>
       </c>
     </row>
-    <row r="93" spans="5:8">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E93" s="1">
         <v>45183.645833333336</v>
       </c>
@@ -12808,7 +15013,7 @@
         <v>5.3665389564970002E-3</v>
       </c>
     </row>
-    <row r="94" spans="5:8">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E94" s="1">
         <v>45183.65625</v>
       </c>
@@ -12822,7 +15027,7 @@
         <v>5.9246396521023502E-3</v>
       </c>
     </row>
-    <row r="95" spans="5:8">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E95" s="1">
         <v>45183.666666666664</v>
       </c>
@@ -12836,7 +15041,7 @@
         <v>6.7043255656029904E-3</v>
       </c>
     </row>
-    <row r="96" spans="5:8">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E96" s="1">
         <v>45183.677083333336</v>
       </c>
@@ -12850,7 +15055,7 @@
         <v>7.5462934149740698E-3</v>
       </c>
     </row>
-    <row r="97" spans="5:8">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E97" s="1">
         <v>45183.6875</v>
       </c>
@@ -12864,7 +15069,7 @@
         <v>7.0432321273247098E-3</v>
       </c>
     </row>
-    <row r="98" spans="5:8">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E98" s="1">
         <v>45183.697916666664</v>
       </c>
@@ -12878,7 +15083,7 @@
         <v>7.0243515520878198E-3</v>
       </c>
     </row>
-    <row r="99" spans="5:8">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E99" s="1">
         <v>45183.708333333336</v>
       </c>
@@ -12892,7 +15097,7 @@
         <v>6.8933303884616401E-3</v>
       </c>
     </row>
-    <row r="100" spans="5:8">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E100" s="1">
         <v>45183.71875</v>
       </c>
@@ -12906,7 +15111,7 @@
         <v>6.9517428732501201E-3</v>
       </c>
     </row>
-    <row r="101" spans="5:8">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E101" s="1">
         <v>45183.729166666664</v>
       </c>
@@ -12920,7 +15125,7 @@
         <v>6.90080526327697E-3</v>
       </c>
     </row>
-    <row r="102" spans="5:8">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E102" s="1">
         <v>45183.739583333336</v>
       </c>
@@ -12934,7 +15139,7 @@
         <v>7.4793415753091298E-3</v>
       </c>
     </row>
-    <row r="103" spans="5:8">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E103" s="1">
         <v>45183.75</v>
       </c>
@@ -12948,7 +15153,7 @@
         <v>6.5928703523882E-3</v>
       </c>
     </row>
-    <row r="104" spans="5:8">
+    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E104" s="1">
         <v>45183.760416666664</v>
       </c>
@@ -12962,7 +15167,7 @@
         <v>7.2268225010352401E-3</v>
       </c>
     </row>
-    <row r="105" spans="5:8">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E105" s="1">
         <v>45183.770833333336</v>
       </c>
@@ -12976,7 +15181,7 @@
         <v>6.5995808395566298E-3</v>
       </c>
     </row>
-    <row r="106" spans="5:8">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E106" s="1">
         <v>45183.78125</v>
       </c>
@@ -12990,7 +15195,7 @@
         <v>6.6278351962997303E-3</v>
       </c>
     </row>
-    <row r="107" spans="5:8">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E107" s="1">
         <v>45183.791666666664</v>
       </c>
@@ -13004,7 +15209,7 @@
         <v>6.1461676554512602E-3</v>
       </c>
     </row>
-    <row r="108" spans="5:8">
+    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E108" s="1">
         <v>45183.802083333336</v>
       </c>
@@ -13018,7 +15223,7 @@
         <v>5.2375068012059604E-3</v>
       </c>
     </row>
-    <row r="109" spans="5:8">
+    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E109" s="1">
         <v>45183.8125</v>
       </c>
@@ -13032,7 +15237,7 @@
         <v>5.6219036906925996E-3</v>
       </c>
     </row>
-    <row r="110" spans="5:8">
+    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E110" s="1">
         <v>45183.822916666664</v>
       </c>
@@ -13046,7 +15251,7 @@
         <v>5.3884231675924701E-3</v>
       </c>
     </row>
-    <row r="111" spans="5:8">
+    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E111" s="1">
         <v>45183.833333333336</v>
       </c>
@@ -13060,7 +15265,7 @@
         <v>5.7629708973648101E-3</v>
       </c>
     </row>
-    <row r="112" spans="5:8">
+    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E112" s="1">
         <v>45183.84375</v>
       </c>
@@ -13074,7 +15279,7 @@
         <v>5.7048831746521504E-3</v>
       </c>
     </row>
-    <row r="113" spans="5:8">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E113" s="1">
         <v>45183.854166666664</v>
       </c>
@@ -13088,7 +15293,7 @@
         <v>5.9124594661955797E-3</v>
       </c>
     </row>
-    <row r="114" spans="5:8">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E114" s="1">
         <v>45183.864583333336</v>
       </c>
@@ -13102,7 +15307,7 @@
         <v>6.4762190600076101E-3</v>
       </c>
     </row>
-    <row r="115" spans="5:8">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E115" s="1">
         <v>45183.875</v>
       </c>
@@ -13116,7 +15321,7 @@
         <v>6.61710022586612E-3</v>
       </c>
     </row>
-    <row r="116" spans="5:8">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E116" s="1">
         <v>45183.885416666664</v>
       </c>
@@ -13130,7 +15335,7 @@
         <v>6.7107349355683098E-3</v>
       </c>
     </row>
-    <row r="117" spans="5:8">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E117" s="1">
         <v>45183.895833333336</v>
       </c>
@@ -13144,7 +15349,7 @@
         <v>6.9972149739437398E-3</v>
       </c>
     </row>
-    <row r="118" spans="5:8">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E118" s="1">
         <v>45183.90625</v>
       </c>
@@ -13158,7 +15363,7 @@
         <v>7.4215269729860697E-3</v>
       </c>
     </row>
-    <row r="119" spans="5:8">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E119" s="1">
         <v>45183.916666666664</v>
       </c>
@@ -13172,7 +15377,7 @@
         <v>6.9522704379340302E-3</v>
       </c>
     </row>
-    <row r="120" spans="5:8">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E120" s="1">
         <v>45183.927083333336</v>
       </c>
@@ -13186,7 +15391,7 @@
         <v>8.1341264044747091E-3</v>
       </c>
     </row>
-    <row r="121" spans="5:8">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E121" s="1">
         <v>45183.9375</v>
       </c>
@@ -13200,7 +15405,7 @@
         <v>7.8709603171393597E-3</v>
       </c>
     </row>
-    <row r="122" spans="5:8">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E122" s="1">
         <v>45183.947916666664</v>
       </c>
@@ -13214,7 +15419,7 @@
         <v>7.5205007476218302E-3</v>
       </c>
     </row>
-    <row r="123" spans="5:8">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E123" s="1">
         <v>45183.958333333336</v>
       </c>
@@ -13228,7 +15433,7 @@
         <v>7.9715780679070897E-3</v>
       </c>
     </row>
-    <row r="124" spans="5:8">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E124" s="1">
         <v>45183.96875</v>
       </c>
@@ -13242,7 +15447,7 @@
         <v>7.6214385025650403E-3</v>
       </c>
     </row>
-    <row r="125" spans="5:8">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E125" s="1">
         <v>45183.979166666664</v>
       </c>
@@ -13256,7 +15461,7 @@
         <v>7.19218431166504E-3</v>
       </c>
     </row>
-    <row r="126" spans="5:8">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E126" s="1">
         <v>45183.989583333336</v>
       </c>
@@ -13270,7 +15475,7 @@
         <v>7.0234569307734904E-3</v>
       </c>
     </row>
-    <row r="127" spans="5:8">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E127" s="1">
         <v>45184</v>
       </c>
